--- a/python_task.xlsx
+++ b/python_task.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A992C1-803F-40E4-B261-17771FF3E3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC499F2-8CCF-48C2-8EF5-BBF327319526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="1835">
   <si>
     <t>Instructions</t>
   </si>
@@ -5715,12 +5715,24 @@
   <si>
     <t>wjw</t>
   </si>
+  <si>
+    <t>indoorOutdoorBoth</t>
+  </si>
+  <si>
+    <t>individualGroupBoth</t>
+  </si>
+  <si>
+    <t>childrenAdultBoth</t>
+  </si>
+  <si>
+    <t>LandWaterBoth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5854,6 +5866,14 @@
       <color theme="1"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6153,7 +6173,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6382,6 +6402,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -6667,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8457,7 +8478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -8777,9 +8798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8824,13 +8845,17 @@
         <v>143</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="51"/>
+        <v>1833</v>
+      </c>
+      <c r="I1" s="94" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>1834</v>
+      </c>
       <c r="L1" s="52" t="s">
         <v>145</v>
       </c>
@@ -8841,7 +8866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52">
         <v>421</v>
       </c>
@@ -19509,25 +19534,25 @@
           <x14:formula1>
             <xm:f>DropDowns!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H257:H282 H1:H254</xm:sqref>
+          <xm:sqref>H257:H282 H2:H254</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>DropDowns!$H$2:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I282</xm:sqref>
+          <xm:sqref>I2:I282</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>DropDowns!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J257:J282 J1:J254</xm:sqref>
+          <xm:sqref>J257:J282 J2:J254</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>DropDowns!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K257:K282 K1:K254</xm:sqref>
+          <xm:sqref>K257:K282 K2:K254</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -24474,18 +24499,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24718,18 +24743,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F666C629-8FCF-48FB-9AE2-F9EEBED01E98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BDD802-98DA-4004-807F-A074B464C969}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BDD802-98DA-4004-807F-A074B464C969}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F666C629-8FCF-48FB-9AE2-F9EEBED01E98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
